--- a/biology/Médecine/1116_en_santé_et_médecine/1116_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1116_en_santé_et_médecine/1116_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1116_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1116_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1116 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1116_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1116_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital Saint-Jean de Perpignan par Arnaud Gausfred, comte de Roussillon[1].
-Fondation à Cambrai, en Flandre, d'une léproserie placée sous l'invocation de saint Ladre et qui sera confiée, en 1572, aux  chanoinesses régulières de l'abbaye bénédictine de Saint-Lazare[2].
-L'hospice (hospicium) de voyageurs qui est à l'origine de l'actuelle commune de L'Hôpital-sous-Rochefort, en Forez, est mentionné pour la première fois dans une charte de Josserand, archevêque de Lyon, à l'occasion du transfert de l'établissement, ainsi que de son prieuré et de son église, à l'abbaye de la Chaise-Dieu[3],[4].
-Un hospice attesté en 1103 à Montay, au diocèse de Cambrai, et devenu léproserie, est érigé en abbaye Saint-Lazare par l'évêque Burchard[5],[6].
-À Fivizzano, en Toscane, un « hôpital San Lorenzo in alpibus [Saint-Laurent « des Alpes »] est cité parmi les dépendances de l'abbaye S. Apollonio di Canossa (it) dans une bulle du pape Pascal II[7] ».
-Un hôpital, fondé à Naples par les Marfisi pour le couvent di Basiliani, est mentionné dans une bulle du pape Pascal II[8].
-1112-1116 : la confrérie des bourgeois d'Angers fonde la léproserie Saint-Lazare, sans doute réservée aux hommes, et destinée à recevoir dix à douze résidents[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital Saint-Jean de Perpignan par Arnaud Gausfred, comte de Roussillon.
+Fondation à Cambrai, en Flandre, d'une léproserie placée sous l'invocation de saint Ladre et qui sera confiée, en 1572, aux  chanoinesses régulières de l'abbaye bénédictine de Saint-Lazare.
+L'hospice (hospicium) de voyageurs qui est à l'origine de l'actuelle commune de L'Hôpital-sous-Rochefort, en Forez, est mentionné pour la première fois dans une charte de Josserand, archevêque de Lyon, à l'occasion du transfert de l'établissement, ainsi que de son prieuré et de son église, à l'abbaye de la Chaise-Dieu,.
+Un hospice attesté en 1103 à Montay, au diocèse de Cambrai, et devenu léproserie, est érigé en abbaye Saint-Lazare par l'évêque Burchard,.
+À Fivizzano, en Toscane, un « hôpital San Lorenzo in alpibus [Saint-Laurent « des Alpes »] est cité parmi les dépendances de l'abbaye S. Apollonio di Canossa (it) dans une bulle du pape Pascal II ».
+Un hôpital, fondé à Naples par les Marfisi pour le couvent di Basiliani, est mentionné dans une bulle du pape Pascal II.
+1112-1116 : la confrérie des bourgeois d'Angers fonde la léproserie Saint-Lazare, sans doute réservée aux hommes, et destinée à recevoir dix à douze résidents.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1116_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1116_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En Chine, sous le règne de l'empereur Song Zhenzong, Kou Zongshi (fl. 1111-1117), fonctionnaire du service de santé, compile le Ben cao yan yi (« Développement de matière médicale[10] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En Chine, sous le règne de l'empereur Song Zhenzong, Kou Zongshi (fl. 1111-1117), fonctionnaire du service de santé, compile le Ben cao yan yi (« Développement de matière médicale »).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1116_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1116_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Entre 1112 et 1116 : Ibn al-Jawzi (mort en 1200 ou 1201), savant et polygraphe irakien, auteur d'ouvrages sur la médecine, dont le Manafi etthobb (« Utilités de la médecine[11] »).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Entre 1112 et 1116 : Ibn al-Jawzi (mort en 1200 ou 1201), savant et polygraphe irakien, auteur d'ouvrages sur la médecine, dont le Manafi etthobb (« Utilités de la médecine »).</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1116_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1116_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1115 ou 1116[12] : Yves (né vers 1040), évêque de Chartres, fondateur de nombreux établissements consacrés « au soin des pauvres et des malades […], promoteur du développement sans égal des institutions hospitalières durant tout le Moyen Âge[13] » et dont Clerval[14], « s'appuyant sur quelques passages de ses ouvrages, n'hésite pas à dire qu'il était médecin[15] », quoique des auteurs plus récents ne relèvent dans ses écrits que « des comparaisons médicales[16] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1115 ou 1116 : Yves (né vers 1040), évêque de Chartres, fondateur de nombreux établissements consacrés « au soin des pauvres et des malades […], promoteur du développement sans égal des institutions hospitalières durant tout le Moyen Âge » et dont Clerval, « s'appuyant sur quelques passages de ses ouvrages, n'hésite pas à dire qu'il était médecin », quoique des auteurs plus récents ne relèvent dans ses écrits que « des comparaisons médicales ».</t>
         </is>
       </c>
     </row>
